--- a/MEMNUNİYET ANKETİ LİSTE isim tel ofis _v00.xlsx
+++ b/MEMNUNİYET ANKETİ LİSTE isim tel ofis _v00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erden.aydogdu\Desktop\Feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8450216-9CCA-4565-9F37-C9B78DEAAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F6F1C-E782-4E69-8FCF-2C0999613B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="4060" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="1210" windowWidth="19200" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="İsim-Tel-Ofis_ BİLGİ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1817">
   <si>
     <t>AD-SOYAD</t>
   </si>
@@ -5440,6 +5440,42 @@
   </si>
   <si>
     <t>0541 270 34 37</t>
+  </si>
+  <si>
+    <t>Erden Erim Aydoğdu</t>
+  </si>
+  <si>
+    <t>0532 622 55 00</t>
+  </si>
+  <si>
+    <t>0 536 766 63 96</t>
+  </si>
+  <si>
+    <t>0 537 311 16 10</t>
+  </si>
+  <si>
+    <t>0 507 002 31 24</t>
+  </si>
+  <si>
+    <t>0 505 642 04 13</t>
+  </si>
+  <si>
+    <t>Orçun Kayhan</t>
+  </si>
+  <si>
+    <t>Uğur Köse</t>
+  </si>
+  <si>
+    <t>Umut Koca</t>
+  </si>
+  <si>
+    <t>Gökhan Yılmaz</t>
+  </si>
+  <si>
+    <t>Özge Ayaz</t>
+  </si>
+  <si>
+    <t>Mustafa Onur Girişken</t>
   </si>
 </sst>
 </file>
@@ -5902,8 +5938,8 @@
   </sheetPr>
   <dimension ref="A1:C1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C99" sqref="A2:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="A901" sqref="A901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15814,39 +15850,81 @@
       </c>
     </row>
     <row r="901" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A901" s="9"/>
-      <c r="B901" s="5"/>
-      <c r="C901" s="10"/>
+      <c r="A901" s="9" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B901" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C901" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="902" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A902" s="9"/>
-      <c r="B902" s="5"/>
-      <c r="C902" s="10"/>
+      <c r="A902" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B902" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C902" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="903" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A903" s="9"/>
-      <c r="B903" s="5"/>
-      <c r="C903" s="10"/>
+      <c r="A903" s="9" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B903" s="5">
+        <v>5333862498</v>
+      </c>
+      <c r="C903" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="904" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A904" s="9"/>
-      <c r="B904" s="5"/>
-      <c r="C904" s="10"/>
+      <c r="A904" s="9" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B904" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C904" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="905" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A905" s="9"/>
-      <c r="B905" s="5"/>
-      <c r="C905" s="10"/>
+      <c r="A905" s="9" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B905" s="5">
+        <v>5432785292</v>
+      </c>
+      <c r="C905" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="906" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A906" s="9"/>
-      <c r="B906" s="5"/>
-      <c r="C906" s="10"/>
+      <c r="A906" s="9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B906" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C906" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="907" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A907" s="9"/>
-      <c r="B907" s="5"/>
-      <c r="C907" s="10"/>
+      <c r="A907" s="9" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B907" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C907" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="908" spans="1:3" ht="18.75" customHeight="1">
       <c r="A908" s="9"/>
